--- a/IRCTCTeamRed.xlsx
+++ b/IRCTCTeamRed.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91970\Downloads\mydownloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05AC977-1AB9-48A3-8F48-CA47B596FCE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="DATABASE" sheetId="5" r:id="rId1"/>
@@ -19,8 +13,8 @@
     <sheet name="StretchableComponent" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -305,8 +299,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,9 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -380,6 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -476,7 +470,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -653,43 +647,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F5E14A-D489-4EAC-83EB-2EEF6C397375}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:6">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="C1" s="13"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
@@ -697,7 +691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="4" t="s">
         <v>49</v>
       </c>
@@ -705,7 +699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
@@ -713,7 +707,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
@@ -721,7 +715,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
@@ -729,7 +723,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
@@ -737,17 +731,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -755,37 +749,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="2:6">
+      <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="2:6">
+      <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="2:6">
+      <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="2:6">
+      <c r="B16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
@@ -793,7 +787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3">
       <c r="B18" s="4" t="s">
         <v>50</v>
       </c>
@@ -801,15 +795,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3">
       <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
@@ -817,7 +811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3">
       <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
@@ -825,25 +819,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="2:3">
+      <c r="B22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="2:3">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -851,7 +845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3">
       <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
@@ -859,7 +853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3">
       <c r="B28" s="4" t="s">
         <v>14</v>
       </c>
@@ -867,7 +861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3">
       <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
@@ -875,7 +869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3">
       <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
@@ -883,7 +877,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3">
       <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
@@ -904,23 +898,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="50.33203125" customWidth="1"/>
-    <col min="6" max="6" width="68.6640625" customWidth="1"/>
+    <col min="1" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="50.28515625" customWidth="1"/>
+    <col min="6" max="6" width="68.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -930,7 +924,7 @@
       <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -940,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="150">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -950,17 +944,17 @@
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="105">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -970,40 +964,40 @@
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="75">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>54</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="75">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1017,24 +1011,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="98.44140625" customWidth="1"/>
+    <col min="1" max="1" width="98.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1045,24 +1039,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="109.44140625" customWidth="1"/>
+    <col min="1" max="1" width="109.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>48</v>
       </c>
